--- a/res/page/车场管理/CarInfoPage.xlsx
+++ b/res/page/车场管理/CarInfoPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="21495" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>别名</t>
   </si>
@@ -162,6 +162,18 @@
     <t>//*[@id="park_blacklistTable" or @id='park_visitorlistTable'or @id='special_car_type_configTable']//div[@class='el-table__fixed-right']//span[contains(text(),'同步详情')]</t>
   </si>
   <si>
+    <t>重新同步</t>
+  </si>
+  <si>
+    <t>//div[@id='supportParkTable']//span[text()='重新同步']</t>
+  </si>
+  <si>
+    <t>同步详情列表</t>
+  </si>
+  <si>
+    <t>//div[@id='supportParkTable']</t>
+  </si>
+  <si>
     <t>编辑</t>
   </si>
   <si>
@@ -262,6 +274,18 @@
   </si>
   <si>
     <t>//div[@class='el-table__fixed']</t>
+  </si>
+  <si>
+    <t>导出</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "导出")]</t>
+  </si>
+  <si>
+    <t>关闭-提示</t>
+  </si>
+  <si>
+    <t>//button[text()='关闭']</t>
   </si>
 </sst>
 </file>
@@ -297,14 +321,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +382,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,61 +412,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,14 +450,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -409,32 +457,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,187 +479,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,11 +688,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,32 +714,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,6 +742,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -755,9 +777,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,10 +793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,137 +805,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +961,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,10 +1314,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1601,7 +1628,7 @@
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1623,7 +1650,7 @@
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1639,7 +1666,7 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1650,7 +1677,7 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1661,7 +1688,7 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1671,25 +1698,25 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A34" s="4" t="s">
+    <row r="34" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
+      <c r="A34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A35" s="4" t="s">
+    <row r="35" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
+      <c r="A35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1711,29 +1738,29 @@
       <c r="B37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" ht="24" customHeight="1" spans="1:3">
-      <c r="A38" s="5" t="s">
+    <row r="38" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" ht="24" customHeight="1" spans="1:3">
-      <c r="A39" s="5" t="s">
+    <row r="39" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1746,6 +1773,50 @@
       </c>
       <c r="C40" s="5" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="1:3">
+      <c r="A42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
